--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58A86220-3A0A-E74A-BDAC-B2BE6A67D8E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F579D4-D4EE-5F48-9E84-04A8C7FFD2FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="500" windowWidth="23620" windowHeight="15460"/>
+    <workbookView xWindow="40" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -420,7 +420,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8F579D4-D4EE-5F48-9E84-04A8C7FFD2FE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB1BCE8-C756-C041-A082-7F19EFE0E12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Country</t>
   </si>
@@ -67,16 +67,49 @@
   </si>
   <si>
     <t>Erewhon</t>
+  </si>
+  <si>
+    <t>R24</t>
+  </si>
+  <si>
+    <t>R25</t>
+  </si>
+  <si>
+    <t>R26</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -421,15 +454,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -443,39 +476,93 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>100</v>
+        <v>10000</v>
       </c>
       <c r="C2" s="1">
-        <v>700</v>
+        <v>10000</v>
       </c>
       <c r="D2" s="1">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="E2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="F2" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="G2" s="1">
-        <v>0</v>
+        <v>10000</v>
+      </c>
+      <c r="H2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="I2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="K2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="L2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="M2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="N2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
+        <v>10000</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -497,8 +584,35 @@
       <c r="G3" s="1">
         <v>0</v>
       </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -520,8 +634,35 @@
       <c r="G4" s="1">
         <v>0</v>
       </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>0</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0</v>
+      </c>
+      <c r="O4" s="1">
+        <v>0</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -543,8 +684,35 @@
       <c r="G5" s="1">
         <v>0</v>
       </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -566,10 +734,38 @@
       <c r="G6" s="1">
         <v>0</v>
       </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="1">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDB1BCE8-C756-C041-A082-7F19EFE0E12D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6537E91-480B-E744-81A0-1144C0E6F370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="40" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,49 +517,49 @@
         <v>7</v>
       </c>
       <c r="B2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="C2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="D2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="F2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="H2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>5</v>
       </c>
       <c r="J2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -567,28 +567,28 @@
         <v>8</v>
       </c>
       <c r="B3" s="1">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="C3" s="1">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1">
-        <v>1200</v>
+        <v>11</v>
       </c>
       <c r="E3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I3" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J3" s="1">
         <v>0</v>
@@ -617,28 +617,28 @@
         <v>9</v>
       </c>
       <c r="B4" s="1">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="D4" s="1">
-        <v>300</v>
+        <v>11</v>
       </c>
       <c r="E4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I4" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J4" s="1">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>10</v>
       </c>
       <c r="B5" s="1">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="D5" s="1">
-        <v>200</v>
+        <v>11</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -717,28 +717,28 @@
         <v>11</v>
       </c>
       <c r="B6" s="1">
-        <v>70</v>
+        <v>11</v>
       </c>
       <c r="C6" s="1">
-        <v>500</v>
+        <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>1700</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="H6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I6" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="J6" s="1">
         <v>0</v>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6537E91-480B-E744-81A0-1144C0E6F370}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093B678-34DB-B343-ABFD-97130560935B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9500" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -457,308 +457,308 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="1" t="s">
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
         <v>6</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1">
-        <v>5</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>5</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5</v>
-      </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>5</v>
-      </c>
-      <c r="J2" s="1">
-        <v>0</v>
-      </c>
-      <c r="K2" s="1">
-        <v>0</v>
-      </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
-      <c r="M2" s="1">
-        <v>0</v>
-      </c>
-      <c r="N2" s="1">
-        <v>0</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
+      <c r="I2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1">
-        <v>11</v>
-      </c>
-      <c r="C3" s="1">
-        <v>11</v>
-      </c>
-      <c r="D3" s="1">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0</v>
-      </c>
-      <c r="K3" s="1">
-        <v>0</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0</v>
-      </c>
-      <c r="N3" s="1">
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
+      <c r="B3">
+        <v>11</v>
+      </c>
+      <c r="C3">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>11</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1">
-        <v>11</v>
-      </c>
-      <c r="C4" s="1">
-        <v>11</v>
-      </c>
-      <c r="D4" s="1">
-        <v>11</v>
-      </c>
-      <c r="E4" s="1">
-        <v>11</v>
-      </c>
-      <c r="F4" s="1">
-        <v>11</v>
-      </c>
-      <c r="G4" s="1">
-        <v>11</v>
-      </c>
-      <c r="H4" s="1">
-        <v>11</v>
-      </c>
-      <c r="I4" s="1">
-        <v>11</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0</v>
-      </c>
-      <c r="N4" s="1">
-        <v>0</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0</v>
-      </c>
-      <c r="P4" s="1">
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>11</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="1">
-        <v>11</v>
-      </c>
-      <c r="C5" s="1">
-        <v>11</v>
-      </c>
-      <c r="D5" s="1">
-        <v>11</v>
-      </c>
-      <c r="E5" s="1">
-        <v>11</v>
-      </c>
-      <c r="F5" s="1">
-        <v>11</v>
-      </c>
-      <c r="G5" s="1">
-        <v>11</v>
-      </c>
-      <c r="H5" s="1">
-        <v>11</v>
-      </c>
-      <c r="I5" s="1">
-        <v>11</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0</v>
-      </c>
-      <c r="N5" s="1">
-        <v>0</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0</v>
-      </c>
-      <c r="P5" s="1">
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1">
-        <v>11</v>
-      </c>
-      <c r="E6" s="1">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1">
-        <v>11</v>
-      </c>
-      <c r="H6" s="1">
-        <v>11</v>
-      </c>
-      <c r="I6" s="1">
-        <v>11</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="1">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="A6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>11</v>
+      </c>
+      <c r="G6">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>11</v>
+      </c>
+      <c r="I6">
+        <v>11</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
         <v>0</v>
       </c>
     </row>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8093B678-34DB-B343-ABFD-97130560935B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85620BC3-D667-9849-B56C-321CD6DF5F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9500" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,7 +457,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -517,28 +517,28 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="E2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="G2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="H2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J2">
         <v>0</v>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85620BC3-D667-9849-B56C-321CD6DF5F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{313E3651-0841-174D-B20A-5A9B961C43A9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9500" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -456,8 +456,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -541,25 +541,25 @@
         <v>30</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -591,25 +591,25 @@
         <v>11</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -641,25 +641,25 @@
         <v>11</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -691,25 +691,25 @@
         <v>11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -741,25 +741,25 @@
         <v>11</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -5,25 +5,22 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85620BC3-D667-9849-B56C-321CD6DF5F0D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABFC034-9370-CB44-BBEE-68D28BA32042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9500" yWindow="500" windowWidth="14740" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7100" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1"/>
+  <calcPr calcId="181029" iterate="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -100,7 +97,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -114,13 +111,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -132,16 +141,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -457,7 +469,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -513,53 +525,53 @@
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B2">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="E2">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F2">
-        <v>30</v>
+        <v>11</v>
       </c>
       <c r="G2">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="H2">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -567,49 +579,49 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="C3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D3">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="F3">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="I3">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -617,10 +629,10 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="D4">
         <v>11</v>
@@ -632,34 +644,34 @@
         <v>11</v>
       </c>
       <c r="G4">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H4">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="I4">
         <v>11</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -667,10 +679,10 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C5">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D5">
         <v>11</v>
@@ -679,37 +691,37 @@
         <v>11</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G5">
         <v>11</v>
       </c>
       <c r="H5">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I5">
         <v>11</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -717,46 +729,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>11</v>
       </c>
       <c r="D6">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E6">
         <v>11</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="H6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I6">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6">
         <v>0</v>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABFC034-9370-CB44-BBEE-68D28BA32042}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBA9B2-3729-7E49-816A-FAA8A73B8AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7100" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6100" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -91,13 +91,16 @@
   </si>
   <si>
     <t>R8</t>
+  </si>
+  <si>
+    <t>Foremz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,8 +121,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -129,6 +146,16 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
   </fills>
@@ -141,19 +168,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
     <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,7 +505,7 @@
   <dimension ref="A1:P8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,7 +611,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B3">
@@ -625,7 +661,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B4">
@@ -675,7 +711,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B5">
@@ -688,7 +724,7 @@
         <v>11</v>
       </c>
       <c r="E5">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F5">
         <v>8</v>
@@ -725,7 +761,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="4" t="s">
         <v>11</v>
       </c>
       <c r="B6">
@@ -774,7 +810,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="7" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1">
+        <v>30</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>9</v>
+      </c>
+      <c r="G7" s="1">
+        <v>12</v>
+      </c>
+      <c r="H7" s="1">
+        <v>14</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="1">
+        <v>5</v>
+      </c>
+      <c r="P7" s="1">
+        <v>6</v>
+      </c>
+    </row>
     <row r="8" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2DBA9B2-3729-7E49-816A-FAA8A73B8AF8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73627893-E6CF-E340-877A-57BAFD3537C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6100" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="26640" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -504,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,4 +868,841 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{630BD496-9DBD-AB4E-B064-BCD4A563E482}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>45</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>30</v>
+      </c>
+      <c r="I4">
+        <v>11</v>
+      </c>
+      <c r="J4">
+        <v>5</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>3</v>
+      </c>
+      <c r="P4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>11</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>8</v>
+      </c>
+      <c r="G5">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>9</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>8</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+      <c r="O5">
+        <v>5</v>
+      </c>
+      <c r="P5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC005AC-D37A-A34C-9167-2E6ABF6B99D3}">
+  <dimension ref="A1:P7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>35</v>
+      </c>
+      <c r="C2">
+        <v>40</v>
+      </c>
+      <c r="D2">
+        <v>15</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>7</v>
+      </c>
+      <c r="H2">
+        <v>40</v>
+      </c>
+      <c r="I2">
+        <v>38</v>
+      </c>
+      <c r="J2">
+        <v>40</v>
+      </c>
+      <c r="K2">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+      <c r="N2">
+        <v>10</v>
+      </c>
+      <c r="O2">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>15</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>45</v>
+      </c>
+      <c r="I3">
+        <v>29</v>
+      </c>
+      <c r="J3">
+        <v>30</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>15</v>
+      </c>
+      <c r="M3">
+        <v>45</v>
+      </c>
+      <c r="N3">
+        <v>20</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+      <c r="P3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="4"/>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C83B8B-8301-214B-8F7C-10DAD4C0D625}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>20</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>11</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>30</v>
+      </c>
+      <c r="I2">
+        <v>11</v>
+      </c>
+      <c r="J2">
+        <v>5</v>
+      </c>
+      <c r="K2">
+        <v>9</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+      <c r="M2">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>6</v>
+      </c>
+      <c r="O2">
+        <v>3</v>
+      </c>
+      <c r="P2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>11</v>
+      </c>
+      <c r="J3">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>5</v>
+      </c>
+      <c r="L3">
+        <v>9</v>
+      </c>
+      <c r="M3">
+        <v>8</v>
+      </c>
+      <c r="N3">
+        <v>8</v>
+      </c>
+      <c r="O3">
+        <v>5</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>15</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>6</v>
+      </c>
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="1">
+        <v>30</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+      <c r="G5" s="1">
+        <v>12</v>
+      </c>
+      <c r="H5" s="1">
+        <v>14</v>
+      </c>
+      <c r="I5" s="1">
+        <v>16</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0</v>
+      </c>
+      <c r="M5" s="1">
+        <v>3</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4</v>
+      </c>
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Divya/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73627893-E6CF-E340-877A-57BAFD3537C8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0BC07-436F-7643-8974-CF196E9A6EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2160" yWindow="500" windowWidth="26640" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
   <si>
     <t>Country</t>
   </si>
@@ -1444,15 +1444,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C83B8B-8301-214B-8F7C-10DAD4C0D625}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1466,240 +1466,146 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>10</v>
+      </c>
+      <c r="H2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>20</v>
+      </c>
+      <c r="D3">
+        <v>11</v>
+      </c>
+      <c r="E3">
+        <v>9</v>
+      </c>
+      <c r="F3">
+        <v>7</v>
+      </c>
+      <c r="G3">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>9</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>15</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1">
+        <v>30</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1">
+        <v>3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
         <v>4</v>
-      </c>
-      <c r="L1" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" t="s">
-        <v>6</v>
-      </c>
-      <c r="N1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>20</v>
-      </c>
-      <c r="D2">
-        <v>11</v>
-      </c>
-      <c r="E2">
-        <v>11</v>
-      </c>
-      <c r="F2">
-        <v>11</v>
-      </c>
-      <c r="G2">
-        <v>8</v>
-      </c>
-      <c r="H2">
-        <v>30</v>
-      </c>
-      <c r="I2">
-        <v>11</v>
-      </c>
-      <c r="J2">
-        <v>5</v>
-      </c>
-      <c r="K2">
-        <v>9</v>
-      </c>
-      <c r="L2">
-        <v>7</v>
-      </c>
-      <c r="M2">
-        <v>16</v>
-      </c>
-      <c r="N2">
-        <v>6</v>
-      </c>
-      <c r="O2">
-        <v>3</v>
-      </c>
-      <c r="P2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>15</v>
-      </c>
-      <c r="D3">
-        <v>11</v>
-      </c>
-      <c r="E3">
-        <v>7</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3">
-        <v>11</v>
-      </c>
-      <c r="H3">
-        <v>9</v>
-      </c>
-      <c r="I3">
-        <v>11</v>
-      </c>
-      <c r="J3">
-        <v>7</v>
-      </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-      <c r="L3">
-        <v>9</v>
-      </c>
-      <c r="M3">
-        <v>8</v>
-      </c>
-      <c r="N3">
-        <v>8</v>
-      </c>
-      <c r="O3">
-        <v>5</v>
-      </c>
-      <c r="P3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>15</v>
-      </c>
-      <c r="E4">
-        <v>11</v>
-      </c>
-      <c r="F4">
-        <v>6</v>
-      </c>
-      <c r="G4">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>3</v>
-      </c>
-      <c r="I4">
-        <v>3</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
-      </c>
-      <c r="K4">
-        <v>2</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="1">
-        <v>30</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" s="1">
-        <v>9</v>
-      </c>
-      <c r="G5" s="1">
-        <v>12</v>
-      </c>
-      <c r="H5" s="1">
-        <v>14</v>
-      </c>
-      <c r="I5" s="1">
-        <v>16</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0</v>
-      </c>
-      <c r="M5" s="1">
-        <v>3</v>
-      </c>
-      <c r="N5" s="1">
-        <v>4</v>
-      </c>
-      <c r="O5" s="1">
-        <v>5</v>
-      </c>
-      <c r="P5" s="1">
-        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/data/country_data.xlsx
+++ b/data/country_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ludwik/AI-Spring-2021/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kellywolfe/PycharmProjects/AI-Spring-2021/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50F0BC07-436F-7643-8974-CF196E9A6EC5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FA2642F-C36C-0140-8B00-0AFD442A04A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2160" yWindow="500" windowWidth="26640" windowHeight="15460" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2160" yWindow="500" windowWidth="26640" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Countries" sheetId="2" r:id="rId1"/>
@@ -19,19 +19,11 @@
     <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="23">
   <si>
     <t>Country</t>
   </si>
@@ -97,6 +89,9 @@
   </si>
   <si>
     <t>Foremz</t>
+  </si>
+  <si>
+    <t>self</t>
   </si>
 </sst>
 </file>
@@ -507,8 +502,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,7 +560,7 @@
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>35</v>
@@ -1446,8 +1441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7C83B8B-8301-214B-8F7C-10DAD4C0D625}">
   <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1480,7 +1475,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B2">
         <v>10</v>
